--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1247</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="3">
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1561</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="3">
@@ -5648,10 +5648,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" t="n">
-        <v>1247</v>
+        <v>1277</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
@@ -5683,10 +5683,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
-        <v>1561</v>
+        <v>1651</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>

--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1257</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="6">
@@ -5473,10 +5473,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>1257</v>
+        <v>1302</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>

--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -5088,10 +5088,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>1390</v>
+        <v>1480</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5158,10 +5158,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>282</v>
+        <v>372</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1390</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="5">
@@ -6825,7 +6825,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -6838,16 +6838,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>127</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5">
@@ -6869,11 +6869,11 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>282</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">

--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1541</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="5">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>112</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5298,10 +5298,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>1541</v>
+        <v>1613</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>

--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -9,28 +9,28 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Poza" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomas Rambert" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Martinez" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diego Segovia" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diego Segovia" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Martinez" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumen" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
@@ -662,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,17 +735,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
@@ -770,89 +770,89 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1460</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Club Deportivo Maipú</t>
+          <t>CA Aldosivi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2086</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CD Everton</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,95 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1945</v>
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Braian Martínez</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA Tigre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Braian Martínez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CA Tigre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CA Tigre</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -948,124 +1036,124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Rentistas</t>
+          <t>CSD Defensa y Justicia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1853</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Quilmes AC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1730</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1074,33 +1162,33 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1613</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Criciúma Esporte Clube</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1109,32 +1197,32 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>453</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1144,10 +1232,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1162,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>141</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1249,77 +1337,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>SD Aucas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>3201</v>
+        <v>12591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Aldosivi</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -1328,83 +1416,83 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1863</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CD Everton</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1217</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>Willem II Tilburg</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1419,36 +1507,36 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>477</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Willem II Tilburg U21</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1463,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>175</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -1472,6 +1560,608 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>45</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán II</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente (Chivilcoy)</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Club Sol de Mayo</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CA Douglas Haig</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1550,80 +2240,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSD Defensa y Justicia</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1993</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Quilmes AC</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1632,43 +2322,43 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2850</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Talleres</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
@@ -1676,42 +2366,42 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1026</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1720,330 +2410,29 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>569</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Jhonny Quiñónez</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Barcelona SC Guayaquil</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SD Aucas</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>172</v>
-      </c>
-      <c r="G2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H2" t="n">
-        <v>16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>30</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12591</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jhonny Quiñónez</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Barcelona SC Guayaquil</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Barcelona SC Guayaquil</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jhonny Quiñónez</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Barcelona SC Guayaquil</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Jhonny Quiñónez</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Barcelona SC Guayaquil</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Willem II Tilburg</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Jhonny Quiñónez</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Barcelona SC Guayaquil</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Willem II Tilburg U21</t>
+          <t>CA Talleres II</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2065,264 +2454,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>540</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>45</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>37</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán II</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>169</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2336,7 +2468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2409,105 +2541,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Juan Fedorco</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club Puebla</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente (Chivilcoy)</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2790</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Juan Fedorco</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Club Puebla</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2660</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Juan Fedorco</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Club Puebla</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -2517,7 +2649,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2526,148 +2658,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>17</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Club Sol de Mayo</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CA Douglas Haig</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>810</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2754,17 +2754,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -2774,60 +2774,60 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>1727</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -2836,39 +2836,39 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Talleres</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -2880,95 +2880,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nicolás Vallejo</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liverpool FC Montevideo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Nicolás Vallejo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liverpool FC Montevideo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CA Talleres II</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>368</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3055,36 +2967,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3093,23 +3005,23 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1965</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -3119,10 +3031,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3137,51 +3049,51 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1207</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>403</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3195,7 +3107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3268,80 +3180,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1202</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3350,23 +3262,23 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>738</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -3376,7 +3288,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3385,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -3394,7 +3306,51 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>326</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3738,36 +3694,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3776,23 +3732,23 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1127</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -3802,7 +3758,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3811,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3820,39 +3776,39 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1216</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3864,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3873,6 +3829,747 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Goles en Contra</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Imbatido</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FC Barcelona Atlètic</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Club Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FC Barcelona UEFA (Sub-19)</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>David Martínez</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>46</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>David Martínez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>990</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3951,36 +4648,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3989,33 +4686,33 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1277</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -4024,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4033,42 +4730,42 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>118</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -4077,23 +4774,23 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>129</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -4103,7 +4800,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -4121,748 +4818,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Enzo Franco</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Lateral izquierdo</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>23</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Enzo Franco</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lateral izquierdo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Enzo Franco</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lateral izquierdo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Goles en Contra</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Imbatido</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>37</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>45</v>
-      </c>
-      <c r="L2" t="n">
-        <v>13</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3297</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FC Barcelona Atlètic</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>28</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Club Ferro Carril Oeste</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>27</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FC Cartagena</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>FC Barcelona UEFA (Sub-19)</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5004,24 +4960,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>David Martínez</t>
+          <t>Diego Segovia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>Club Deportivo Maldonado</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5030,33 +4986,33 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diego Segovia</t>
+          <t>Mauro Zurita</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>270</v>
+        <v>1480</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5065,33 +5021,33 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Rodrigo Márquez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1480</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5109,24 +5065,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5144,24 +5100,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergio Ortíz</t>
+          <t>David Sayago</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>372</v>
+        <v>103</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5179,7 +5135,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Agustín Quiroga</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5189,17 +5145,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CA Chacarita Juniors</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>1538</v>
+        <v>2035</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5214,27 +5170,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>David Sayago</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>103</v>
+        <v>1613</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5249,27 +5205,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>1945</v>
+        <v>175</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5284,27 +5240,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>1613</v>
+        <v>569</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5319,30 +5275,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>175</v>
+        <v>1379</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -5354,24 +5310,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Ignacio Maestro Puch</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>569</v>
+        <v>259</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5389,30 +5345,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Juan Fedorco</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Club Puebla</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -5424,30 +5380,30 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ignacio Maestro Puch</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>169</v>
+        <v>1828</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -5459,30 +5415,30 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Juan Fedorco</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Club Puebla</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>1302</v>
+        <v>2048</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -5494,30 +5450,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E18" t="n">
-        <v>1745</v>
+        <v>738</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -5529,30 +5485,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>1965</v>
+        <v>280</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -5564,27 +5520,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>738</v>
+        <v>1277</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -5599,30 +5555,30 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E21" t="n">
-        <v>190</v>
+        <v>1730</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -5634,27 +5590,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Manuel Tasso</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>AD Union Magdalena</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1277</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -5669,27 +5625,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Enzo Franco</t>
+          <t>Lucas Román</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lateral izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Real Pilar FC</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1651</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -5704,17 +5660,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Manuel Tasso</t>
+          <t>David Martínez</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AD Union Magdalena</t>
+          <t>Volos NPS</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -5739,24 +5695,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lucas Román</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1628</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5777,175 +5733,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>David Martínez</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Volos NPS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>46</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>David Martínez</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Volos NPS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>990</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6172,7 +5959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6429,7 +6216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6642,7 +6429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6943,264 +6730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>20</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Platense</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7587,4 +7117,518 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Patricio Ostachuk</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSD Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Patricio Ostachuk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSD Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Club Deportivo Maipú</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Patricio Ostachuk</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSD Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CSD Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2035</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Baltasar Barcia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CA Boston River</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Rentistas</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baltasar Barcia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CA Boston River</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baltasar Barcia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA Boston River</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Boston River</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baltasar Barcia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA Boston River</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Criciúma Esporte Clube</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baltasar Barcia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CA Boston River</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -9,28 +9,28 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Poza" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomas Rambert" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diego Segovia" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Martinez" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Martinez" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diego Segovia" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumen" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
@@ -662,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,17 +735,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
@@ -770,89 +770,89 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>3201</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Aldosivi</t>
+          <t>Club Deportivo Maipú</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1863</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CD Everton</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,95 +861,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Braian Martínez</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA Tigre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Extremo izquierdo</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Braian Martínez</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CA Tigre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Extremo izquierdo</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CA Tigre</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>175</v>
+        <v>2035</v>
       </c>
     </row>
   </sheetData>
@@ -1036,124 +948,124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSD Defensa y Justicia</t>
+          <t>CA Rentistas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1993</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Quilmes AC</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2850</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1162,33 +1074,33 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1026</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Criciúma Esporte Clube</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1197,32 +1109,32 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>569</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1232,11 +1144,11 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
@@ -1250,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>59</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1337,77 +1249,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SD Aucas</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12591</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Aldosivi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -1416,83 +1328,83 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1379</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CD Everton</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>514</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Willem II Tilburg</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1507,36 +1419,36 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>192</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Willem II Tilburg U21</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1551,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>540</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1560,6 +1472,608 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kevin López</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CSD Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kevin López</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Quilmes AC</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>35</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kevin López</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kevin López</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Kevin López</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>172</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12591</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Willem II Tilburg</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Willem II Tilburg U21</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1816,7 +2330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2161,7 +2675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2455,432 +2969,6 @@
       </c>
       <c r="L6" t="n">
         <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Javier Ruiz</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Barracas Central</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mediocentro ofensivo</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Barracas Central</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Javier Ruiz</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Barracas Central</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mediocentro ofensivo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Javier Ruiz</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Barracas Central</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mediocentro ofensivo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>403</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Santiago López</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Rosario Central</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Extremo izquierdo</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Santiago López</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Rosario Central</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Extremo izquierdo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Rosario Central</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Santiago López</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Rosario Central</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Extremo izquierdo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2967,36 +3055,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3005,23 +3093,23 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1127</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -3031,10 +3119,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3049,51 +3137,51 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>280</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3107,7 +3195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3180,80 +3268,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1277</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3262,23 +3350,23 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>118</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -3288,7 +3376,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3297,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -3306,51 +3394,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Joel González</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS Dock Sud</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3694,36 +3738,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Enzo Franco</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Real Pilar FC</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lateral izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Real Pilar FC</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3732,23 +3776,23 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1730</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Enzo Franco</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Real Pilar FC</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lateral izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -3758,7 +3802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3767,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3776,39 +3820,39 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1025</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Enzo Franco</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Real Pilar FC</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lateral izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3820,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>21</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3829,6 +3873,476 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Enzo Franco</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Real Pilar FC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Lateral izquierdo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Real Pilar FC</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Enzo Franco</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Real Pilar FC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lateral izquierdo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Enzo Franco</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Real Pilar FC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lateral izquierdo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4055,7 +4569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4393,432 +4907,6 @@
       </c>
       <c r="L7" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>David Martínez</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Volos NPS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>46</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>David Martínez</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Volos NPS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>990</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Platense</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4960,24 +5048,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Diego Segovia</t>
+          <t>David Martínez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado</t>
+          <t>Volos NPS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4986,33 +5074,33 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Diego Segovia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>Club Deportivo Maldonado</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1480</v>
+        <v>360</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5021,33 +5109,33 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Mauro Zurita</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>51</v>
+        <v>1480</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5065,24 +5153,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergio Ortíz</t>
+          <t>Rodrigo Márquez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5100,24 +5188,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>David Sayago</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5135,7 +5223,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5145,17 +5233,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>2035</v>
+        <v>1628</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5170,27 +5258,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>David Sayago</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>1613</v>
+        <v>117</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5205,27 +5293,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>175</v>
+        <v>2035</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5240,27 +5328,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>569</v>
+        <v>1613</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5275,30 +5363,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>1379</v>
+        <v>175</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -5310,24 +5398,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ignacio Maestro Puch</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>259</v>
+        <v>569</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5345,30 +5433,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Juan Fedorco</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Club Puebla</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
-        <v>1302</v>
+        <v>1379</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -5380,30 +5468,30 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Ignacio Maestro Puch</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1828</v>
+        <v>259</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -5415,30 +5503,30 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Juan Fedorco</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>Club Puebla</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>2048</v>
+        <v>1302</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -5450,30 +5538,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>738</v>
+        <v>1828</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -5485,30 +5573,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="D19" t="n">
+        <v>31</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F19" t="n">
         <v>4</v>
       </c>
-      <c r="E19" t="n">
-        <v>280</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -5520,27 +5608,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>1277</v>
+        <v>738</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -5555,30 +5643,30 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Enzo Franco</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lateral izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Real Pilar FC</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>1730</v>
+        <v>280</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -5590,27 +5678,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Manuel Tasso</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AD Union Magdalena</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1277</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -5625,27 +5713,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lucas Román</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -5660,17 +5748,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>David Martínez</t>
+          <t>Manuel Tasso</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>AD Union Magdalena</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -5695,24 +5783,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Agustín Quiroga</t>
+          <t>Lucas Román</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CA Chacarita Juniors</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1628</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5733,6 +5821,175 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>David Martínez</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>46</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>David Martínez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>990</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5883,7 +6140,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5898,13 +6155,13 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
@@ -5959,7 +6216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6216,7 +6473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6429,7 +6686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6730,7 +6987,264 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Agustín Quiroga</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CA Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Agustín Quiroga</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CA Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Agustín Quiroga</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Agustín Quiroga</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7049,7 +7563,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7067,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">
@@ -7112,520 +7626,6 @@
       </c>
       <c r="L8" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Patricio Ostachuk</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CSD Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Patricio Ostachuk</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CSD Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Club Deportivo Maipú</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>27</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Patricio Ostachuk</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CSD Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CSD Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>24</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2035</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Baltasar Barcia</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Boston River</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Rentistas</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>34</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Baltasar Barcia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Boston River</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>27</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Baltasar Barcia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Boston River</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Boston River</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Baltasar Barcia</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA Boston River</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Criciúma Esporte Clube</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>17</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Baltasar Barcia</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CA Boston River</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -11,26 +11,26 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomas Rambert" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Martinez" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diego Segovia" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumen" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
@@ -662,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,133 +735,221 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Rentistas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1460</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Club Deportivo Maipú</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2086</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baltasar Barcia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA Boston River</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Criciúma Esporte Clube</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baltasar Barcia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CA Boston River</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>2035</v>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -948,206 +1036,206 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Rentistas</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1853</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Aldosivi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1730</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CD Everton</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1613</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Criciúma Esporte Clube</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>453</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1162,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1249,36 +1337,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CSD Defensa y Justicia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1287,42 +1375,42 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3201</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Aldosivi</t>
+          <t>Quilmes AC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1331,86 +1419,86 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1863</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CD Everton</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1217</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1419,33 +1507,33 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>477</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1463,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>175</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1550,105 +1638,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSD Defensa y Justicia</t>
+          <t>SD Aucas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>1993</v>
+        <v>12591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Quilmes AC</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2850</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1658,13 +1746,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -1676,33 +1764,33 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1026</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Willem II Tilburg</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1711,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1720,37 +1808,37 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>569</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>Willem II Tilburg U21</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
@@ -1764,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>59</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -1773,6 +1861,608 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>45</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán II</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente (Chivilcoy)</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Club Sol de Mayo</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CA Douglas Haig</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1851,124 +2541,124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SD Aucas</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12591</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1379</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Talleres</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1977,36 +2667,36 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>514</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Willem II Tilburg</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2021,29 +2711,29 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>192</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Willem II Tilburg U21</t>
+          <t>CA Talleres II</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2065,609 +2755,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>540</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>45</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>37</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán II</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente (Chivilcoy)</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>30</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>26</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>17</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Club Sol de Mayo</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CA Douglas Haig</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>810</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2754,80 +2842,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1727</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -2836,139 +2924,51 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1828</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Talleres</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nicolás Vallejo</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liverpool FC Montevideo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Nicolás Vallejo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liverpool FC Montevideo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CA Talleres II</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>368</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3055,74 +3055,74 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>5</v>
       </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>2048</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3137,33 +3137,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1207</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3172,16 +3172,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>403</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3268,17 +3268,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -3288,54 +3288,54 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1202</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3350,42 +3350,42 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>738</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>326</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3665,6 +3665,263 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3738,36 +3995,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3776,23 +4033,23 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1127</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -3802,7 +4059,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3811,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3820,39 +4077,39 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1216</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3864,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>280</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +4129,579 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Goles en Contra</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Imbatido</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FC Barcelona Atlètic</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Club Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FC Barcelona UEFA (Sub-19)</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3951,36 +4780,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Mauro Zurita</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Güemes</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3989,23 +4818,23 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1277</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Mauro Zurita</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -4015,7 +4844,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -4033,33 +4862,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>118</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Mauro Zurita</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -4068,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -4077,23 +4906,23 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>129</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Mauro Zurita</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -4103,7 +4932,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -4121,792 +4950,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Enzo Franco</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Lateral izquierdo</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>24</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Enzo Franco</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lateral izquierdo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Enzo Franco</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lateral izquierdo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Goles en Contra</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Imbatido</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>37</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>45</v>
-      </c>
-      <c r="L2" t="n">
-        <v>13</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3297</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FC Barcelona Atlètic</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>28</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Club Ferro Carril Oeste</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>27</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FC Cartagena</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>FC Barcelona UEFA (Sub-19)</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5118,24 +5162,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Rodrigo Márquez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1480</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5153,24 +5197,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5188,24 +5232,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergio Ortíz</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>372</v>
+        <v>1628</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5223,24 +5267,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Agustín Quiroga</t>
+          <t>David Sayago</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CA Chacarita Juniors</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>1628</v>
+        <v>117</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5258,27 +5302,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>David Sayago</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>117</v>
+        <v>2035</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5293,27 +5337,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>2035</v>
+        <v>1613</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5328,27 +5372,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>1613</v>
+        <v>175</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5363,24 +5407,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>175</v>
+        <v>569</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5398,30 +5442,30 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>569</v>
+        <v>1379</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -5433,30 +5477,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Ignacio Maestro Puch</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>1379</v>
+        <v>259</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -5468,27 +5512,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ignacio Maestro Puch</t>
+          <t>Juan Fedorco</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Club Puebla</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>259</v>
+        <v>1302</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5503,30 +5547,30 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Juan Fedorco</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Club Puebla</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>1302</v>
+        <v>1828</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -5538,30 +5582,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
-        <v>1828</v>
+        <v>2048</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -5573,30 +5617,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>2048</v>
+        <v>738</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -5608,30 +5652,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>738</v>
+        <v>280</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -5643,30 +5687,30 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="D21" t="n">
+        <v>27</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1277</v>
+      </c>
+      <c r="F21" t="n">
         <v>4</v>
       </c>
-      <c r="E21" t="n">
-        <v>280</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -5678,27 +5722,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E22" t="n">
-        <v>1277</v>
+        <v>1730</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -5713,27 +5757,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Enzo Franco</t>
+          <t>Manuel Tasso</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lateral izquierdo</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Real Pilar FC</t>
+          <t>AD Union Magdalena</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -5748,24 +5792,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Manuel Tasso</t>
+          <t>Lucas Román</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AD Union Magdalena</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5783,24 +5827,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lucas Román</t>
+          <t>Mauro Zurita</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6222,6 +6266,520 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rodrigo Márquez</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>49</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rodrigo Márquez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rodrigo Márquez</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sergio Ortíz</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sergio Ortíz</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sergio Ortíz</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sergio Ortíz</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sergio Ortíz</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Club Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6295,12 +6853,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6311,20 +6869,20 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Güemes</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -6333,18 +6891,18 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1858</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6355,11 +6913,11 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6368,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -6377,18 +6935,18 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>836</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6399,20 +6957,20 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -6421,18 +6979,18 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1480</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6447,7 +7005,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6465,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6473,7 +7031,396 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Raya2 Expansión (- 2023)</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CF Atlante</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS Herediano</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CSD Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6552,17 +7499,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -6572,317 +7519,104 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1220</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>Club Deportivo Maipú</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>532</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>30</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
         <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -6891,741 +7625,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Club Deportivo Riestra</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Platense</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Raya2 Expansión (- 2023)</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>29</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Defensores de Belgrano</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>19</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CF Atlante</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS Herediano</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CSD Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
+        <v>2035</v>
       </c>
     </row>
   </sheetData>

--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -11,26 +11,26 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomas Rambert" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Martinez" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diego Segovia" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumen" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
@@ -662,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,221 +735,133 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Rentistas</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1853</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Club Deportivo Maipú</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1730</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Baltasar Barcia</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA Boston River</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Criciúma Esporte Clube</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>17</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Baltasar Barcia</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CA Boston River</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Pivote</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>141</v>
+        <v>2035</v>
       </c>
     </row>
   </sheetData>
@@ -1036,206 +948,206 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Rentistas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>3201</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Aldosivi</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1863</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CD Everton</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1217</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>Criciúma Esporte Clube</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>477</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1250,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>175</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1337,36 +1249,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSD Defensa y Justicia</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1375,42 +1287,42 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1993</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Quilmes AC</t>
+          <t>CA Aldosivi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1419,86 +1331,86 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2850</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CD Everton</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1026</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1507,42 +1419,42 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>569</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1551,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>59</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1638,105 +1550,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SD Aucas</t>
+          <t>CSD Defensa y Justicia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12591</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Quilmes AC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1379</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1746,13 +1658,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -1764,33 +1676,33 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>514</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Willem II Tilburg</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1799,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1808,36 +1720,36 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>192</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Willem II Tilburg U21</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1852,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>540</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1861,6 +1773,307 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>172</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12591</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Willem II Tilburg</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Willem II Tilburg U21</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2117,7 +2330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2462,7 +2675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2756,219 +2969,6 @@
       </c>
       <c r="L6" t="n">
         <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Javier Ruiz</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Barracas Central</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mediocentro ofensivo</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Barracas Central</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Javier Ruiz</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Barracas Central</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mediocentro ofensivo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Javier Ruiz</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Barracas Central</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mediocentro ofensivo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3055,74 +3055,74 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1202</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3137,33 +3137,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>738</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3172,16 +3172,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>326</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3268,17 +3268,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -3288,54 +3288,54 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>1127</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3350,43 +3350,43 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1216</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>280</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3665,6 +3665,219 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Santiago Salle</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Lateral derecho</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Santiago Salle</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lateral derecho</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Santiago Salle</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lateral derecho</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3758,7 +3971,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -3776,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1277</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="3">
@@ -3916,7 +4129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4129,7 +4342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4356,7 +4569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4694,263 +4907,6 @@
       </c>
       <c r="L7" t="n">
         <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Mauro Zurita</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Círculo Deportivo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Güemes</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>33</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mauro Zurita</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Círculo Deportivo</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>18</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mauro Zurita</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Círculo Deportivo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Círculo Deportivo</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>18</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mauro Zurita</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Círculo Deportivo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5162,24 +5118,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Mauro Zurita</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>51</v>
+        <v>1570</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5197,24 +5153,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergio Ortíz</t>
+          <t>Rodrigo Márquez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5232,24 +5188,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Agustín Quiroga</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CA Chacarita Juniors</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>1628</v>
+        <v>372</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5267,24 +5223,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>David Sayago</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>117</v>
+        <v>1628</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5302,27 +5258,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>David Sayago</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>2035</v>
+        <v>117</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5337,27 +5293,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>1613</v>
+        <v>2035</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5372,27 +5328,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>175</v>
+        <v>1688</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5407,30 +5363,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>569</v>
+        <v>188</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -5442,30 +5398,30 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>1379</v>
+        <v>569</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -5477,30 +5433,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ignacio Maestro Puch</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
-        <v>259</v>
+        <v>1379</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -5512,27 +5468,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Juan Fedorco</t>
+          <t>Ignacio Maestro Puch</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Club Puebla</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1302</v>
+        <v>259</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5547,30 +5503,30 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Juan Fedorco</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Club Puebla</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>1828</v>
+        <v>1302</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -5582,30 +5538,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>2048</v>
+        <v>1828</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -5617,30 +5573,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>738</v>
+        <v>2048</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -5652,30 +5608,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>280</v>
+        <v>738</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -5687,30 +5643,30 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>1277</v>
+        <v>280</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -5722,27 +5678,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Enzo Franco</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lateral izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Real Pilar FC</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>1730</v>
+        <v>1296</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -5757,27 +5713,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Manuel Tasso</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AD Union Magdalena</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -5792,24 +5748,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lucas Román</t>
+          <t>Manuel Tasso</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>AD Union Magdalena</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5827,24 +5783,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Lucas Román</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1480</v>
+        <v>14</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6266,6 +6222,263 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mauro Zurita</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Círculo Deportivo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Güemes</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mauro Zurita</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Círculo Deportivo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Círculo Deportivo</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mauro Zurita</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Círculo Deportivo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mauro Zurita</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Círculo Deportivo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6473,7 +6686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6774,7 +6987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7031,7 +7244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7418,217 +7631,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Patricio Ostachuk</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CSD Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Patricio Ostachuk</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CSD Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Club Deportivo Maipú</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>27</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Patricio Ostachuk</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CSD Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CSD Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>24</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2035</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -24,13 +24,13 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumen" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>2035</v>
+        <v>2125</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1379</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="4">
@@ -2818,13 +2818,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1828</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="4">
@@ -3055,74 +3055,74 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>5</v>
       </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>2048</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3137,33 +3137,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1207</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3172,16 +3172,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>403</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3268,17 +3268,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -3288,54 +3288,54 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1202</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3350,42 +3350,42 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>738</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>326</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3665,219 +3665,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Santiago Salle</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Lateral derecho</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Santiago Salle</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lateral derecho</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Santiago Salle</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lateral derecho</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4129,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4342,7 +4129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4569,7 +4356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4907,6 +4694,219 @@
       </c>
       <c r="L7" t="n">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Javier Ruiz</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CA Barracas Central</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mediocentro ofensivo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Barracas Central</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Javier Ruiz</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CA Barracas Central</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mediocentro ofensivo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Javier Ruiz</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA Barracas Central</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mediocentro ofensivo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -5237,10 +5237,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>1628</v>
+        <v>1718</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5307,10 +5307,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>2035</v>
+        <v>2125</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -5447,10 +5447,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>1379</v>
+        <v>1453</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -5552,16 +5552,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" t="n">
-        <v>1828</v>
+        <v>1910</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -5573,30 +5573,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>2048</v>
+        <v>754</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -5608,30 +5608,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>738</v>
+        <v>280</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -5643,30 +5643,30 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="D21" t="n">
+        <v>28</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1296</v>
+      </c>
+      <c r="F21" t="n">
         <v>4</v>
       </c>
-      <c r="E21" t="n">
-        <v>280</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -5678,27 +5678,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E22" t="n">
-        <v>1296</v>
+        <v>1730</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -5713,27 +5713,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Enzo Franco</t>
+          <t>Manuel Tasso</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lateral izquierdo</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Real Pilar FC</t>
+          <t>AD Union Magdalena</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -5748,24 +5748,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Manuel Tasso</t>
+          <t>Lucas Román</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AD Union Magdalena</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5783,30 +5783,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lucas Román</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>2138</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1628</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="3">
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">

--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -7,27 +7,31 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomas Rambert" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Martinez" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diego Segovia" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Poza" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Poza" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomas Rambert" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Martinez" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diego Segovia" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumen" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumen" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,36 +522,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tomás Rambert</t>
+          <t>Axel Poza</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Los Andes</t>
+          <t>CA Gimnasia y Esgrima (Mendoza)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Alvarado</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,36 +560,36 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1268</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tomás Rambert</t>
+          <t>Axel Poza</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Los Andes</t>
+          <t>CA Gimnasia y Esgrima (Mendoza)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Atlanta</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -600,33 +604,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>487</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tomás Rambert</t>
+          <t>Axel Poza</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Los Andes</t>
+          <t>CA Gimnasia y Esgrima (Mendoza)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Los Andes</t>
+          <t>CA Gimnasia y Esgrima (Mendoza)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -644,51 +648,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tomás Rambert</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA Los Andes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Extremo izquierdo</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -697,6 +657,219 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Patricio Ostachuk</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSD Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Patricio Ostachuk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSD Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Club Deportivo Maipú</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Patricio Ostachuk</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSD Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CSD Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -775,12 +948,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -791,40 +964,40 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SD Aucas</t>
+          <t>CA Rentistas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>12591</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -835,7 +1008,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -848,27 +1021,27 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1453</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -879,11 +1052,11 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -892,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -901,18 +1074,18 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>514</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -923,11 +1096,11 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Willem II Tilburg</t>
+          <t>Criciúma Esporte Clube</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -936,27 +1109,27 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>192</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -967,11 +1140,11 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Willem II Tilburg U21</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -989,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>540</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -997,13 +1170,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,17 +1249,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1096,16 +1269,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1114,39 +1287,39 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1127</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Aldosivi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -1158,51 +1331,139 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1216</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CD Everton</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>370</v>
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Braian Martínez</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA Tigre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Braian Martínez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CA Tigre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CA Tigre</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1471,609 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kevin López</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CSD Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kevin López</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Quilmes AC</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>35</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kevin López</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kevin López</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Kevin López</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SD Aucas</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>172</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12591</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Willem II Tilburg</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jhonny Quiñónez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barcelona SC Guayaquil</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Willem II Tilburg U21</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1289,80 +2152,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Ignacio Maestro Puch</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1296</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Ignacio Maestro Puch</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1371,29 +2234,29 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>118</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Ignacio Maestro Puch</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1415,36 +2278,36 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>129</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Ignacio Maestro Puch</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Club Atlético Tucumán II</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1459,660 +2322,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Enzo Franco</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Lateral izquierdo</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>24</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Enzo Franco</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lateral izquierdo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Enzo Franco</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Real Pilar FC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lateral izquierdo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Goles en Contra</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Imbatido</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>37</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>45</v>
-      </c>
-      <c r="L2" t="n">
-        <v>13</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3297</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Axel Poza</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Gimnasia y Esgrima (Mendoza)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>13</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Axel Poza</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Gimnasia y Esgrima (Mendoza)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Atlanta</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Axel Poza</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Gimnasia y Esgrima (Mendoza)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Gimnasia y Esgrima (Mendoza)</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +2336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2199,12 +2409,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Agustín Quiroga</t>
+          <t>Juan Fedorco</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Chacarita Juniors</t>
+          <t>Club Puebla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2215,11 +2425,11 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Chacarita Juniors</t>
+          <t>CA Independiente (Chivilcoy)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2228,27 +2438,27 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1718</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Agustín Quiroga</t>
+          <t>Juan Fedorco</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Chacarita Juniors</t>
+          <t>Club Puebla</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2259,40 +2469,40 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1383</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Agustín Quiroga</t>
+          <t>Juan Fedorco</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Chacarita Juniors</t>
+          <t>Club Puebla</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2303,20 +2513,20 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2325,18 +2535,18 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>252</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Agustín Quiroga</t>
+          <t>Juan Fedorco</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Chacarita Juniors</t>
+          <t>Club Puebla</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2347,20 +2557,20 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Club Puebla</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2369,7 +2579,95 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>15</v>
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Club Sol de Mayo</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CA Douglas Haig</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,80 +2754,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>David Sayago</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Raya2 Expansión (- 2023)</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1947</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>David Sayago</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Defensores de Belgrano</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -2538,42 +2836,42 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1167</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>David Sayago</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CF Atlante</t>
+          <t>CA Talleres</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2582,42 +2880,42 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>David Sayago</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS Herediano</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2626,36 +2924,36 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>381</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>David Sayago</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Talleres II</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -2670,95 +2968,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2845,124 +3055,124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1460</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Club Deportivo Maipú</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2086</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2971,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>2125</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3198,6 +3408,263 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tomás Rambert</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CA Los Andes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Alvarado</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tomás Rambert</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CA Los Andes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tomás Rambert</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA Los Andes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Los Andes</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tomás Rambert</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA Los Andes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3271,17 +3738,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>David Martínez</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -3291,16 +3758,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3309,23 +3776,23 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2251</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>David Martínez</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -3335,7 +3802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3353,39 +3820,39 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>990</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>David Martínez</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3397,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3872,704 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Enzo Franco</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Real Pilar FC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Lateral izquierdo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Real Pilar FC</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Enzo Franco</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Real Pilar FC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lateral izquierdo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Enzo Franco</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Real Pilar FC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lateral izquierdo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Goles en Contra</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Imbatido</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3750,13 +4914,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3814,24 +4978,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tomás Rambert</t>
+          <t>Axel Poza</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CA Los Andes</t>
+          <t>CA Gimnasia y Esgrima (Mendoza)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3849,24 +5013,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>David Martínez</t>
+          <t>Tomás Rambert</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>CA Los Andes</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>425</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3884,24 +5048,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Diego Segovia</t>
+          <t>David Martínez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado</t>
+          <t>Volos NPS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>450</v>
+        <v>156</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3910,33 +5074,33 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Diego Segovia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>Club Deportivo Maldonado</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>1570</v>
+        <v>540</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3945,33 +5109,33 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Mauro Zurita</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>51</v>
+        <v>1570</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3989,24 +5153,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergio Ortíz</t>
+          <t>Rodrigo Márquez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4024,27 +5188,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>1689</v>
+        <v>440</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4059,30 +5223,30 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>188</v>
+        <v>1808</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -4094,27 +5258,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>David Sayago</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>597</v>
+        <v>171</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -4129,30 +5293,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>1453</v>
+        <v>2215</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -4164,30 +5328,30 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>370</v>
+        <v>1758</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -4199,30 +5363,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>1296</v>
+        <v>209</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -4234,27 +5398,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Enzo Franco</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lateral izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Real Pilar FC</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>1730</v>
+        <v>601</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -4269,30 +5433,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Manuel Tasso</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AD Union Magdalena</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1535</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -4304,24 +5468,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Axel Poza</t>
+          <t>Ignacio Maestro Puch</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CA Gimnasia y Esgrima (Mendoza)</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -4339,7 +5503,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Agustín Quiroga</t>
+          <t>Juan Fedorco</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4349,17 +5513,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CA Chacarita Juniors</t>
+          <t>Club Puebla</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>1718</v>
+        <v>1482</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -4374,30 +5538,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>David Sayago</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -4409,30 +5573,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
-        <v>2125</v>
+        <v>2228</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -4479,35 +5643,175 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Santiago Salle</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lateral derecho</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>454</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Joel González</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CS Dock Sud</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>28</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1296</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Enzo Franco</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lateral izquierdo</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Real Pilar FC</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>24</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1730</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Lucas Román</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Extremo derecho</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Club Atlético Tucumán</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E25" t="n">
         <v>14</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4517,6 +5821,219 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>David Martínez</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>46</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>David Martínez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>David Martínez</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4620,7 +6137,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -4638,10 +6155,10 @@
         <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1413</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="3">
@@ -4667,7 +6184,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -4682,13 +6199,13 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4">
@@ -4743,7 +6260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5000,7 +6517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5206,307 +6723,6 @@
       </c>
       <c r="L4" t="n">
         <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>30</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Club Deportivo Riestra</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5593,80 +6809,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Rentistas</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1853</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -5675,77 +6891,77 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1730</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1689</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Criciúma Esporte Clube</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5754,52 +6970,52 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>453</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>Club Deportivo Riestra</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -5807,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>141</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5821,7 +7037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5894,33 +7110,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
@@ -5932,43 +7148,43 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3201</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Aldosivi</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -5976,39 +7192,39 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1863</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CD Everton</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -6017,39 +7233,39 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -6064,51 +7280,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Braian Martínez</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CA Tigre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Extremo izquierdo</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CA Tigre</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>188</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6122,7 +7294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6195,36 +7367,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>David Sayago</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSD Defensa y Justicia</t>
+          <t>Raya2 Expansión (- 2023)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -6233,43 +7405,43 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1993</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>David Sayago</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Quilmes AC</t>
+          <t>CA Defensores de Belgrano</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -6277,42 +7449,42 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2850</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>David Sayago</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CF Atlante</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -6321,42 +7493,42 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1026</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>David Sayago</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>CS Herediano</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -6365,37 +7537,37 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>597</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>David Sayago</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
@@ -6409,7 +7581,95 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>59</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CSD Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1482</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="6">
@@ -5517,10 +5517,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>1482</v>
+        <v>1572</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>

--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -795,29 +795,29 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Club Deportivo Maipú</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2086</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="4">
@@ -839,29 +839,29 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>Club Deportivo Maipú</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2215</v>
+        <v>2086</v>
       </c>
     </row>
   </sheetData>
@@ -1008,29 +1008,29 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1730</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="4">
@@ -1052,29 +1052,29 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1758</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="5">
@@ -1397,20 +1397,20 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>7</v>
       </c>
       <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>477</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
@@ -1441,20 +1441,20 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>209</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1535</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="4">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>408</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1572</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="6">
@@ -2818,13 +2818,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="4">
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2228</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="3">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>454</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1296</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="3">
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1730</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="3">
@@ -5062,10 +5062,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5097,10 +5097,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -5237,10 +5237,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>1808</v>
+        <v>1898</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5307,10 +5307,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>2215</v>
+        <v>2305</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -5342,10 +5342,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>1758</v>
+        <v>1835</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -5377,10 +5377,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -5447,10 +5447,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
-        <v>1535</v>
+        <v>1625</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -5482,10 +5482,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5517,10 +5517,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>1572</v>
+        <v>1752</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -5552,16 +5552,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>2000</v>
+        <v>2083</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" t="n">
-        <v>2228</v>
+        <v>2306</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -5657,10 +5657,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>454</v>
+        <v>538</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>1296</v>
+        <v>1443</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
@@ -5727,10 +5727,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" t="n">
-        <v>1730</v>
+        <v>1910</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>156</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6199,13 +6199,13 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4">
@@ -7130,7 +7130,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1808</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="3">
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">

--- a/jugadores_transfermarkt.xlsx
+++ b/jugadores_transfermarkt.xlsx
@@ -7,30 +7,30 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Poza" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomas Rambert" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Martinez" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diego Segovia" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomas Rambert" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Martinez" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diego Segovia" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mauro Zurita" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rodrigo Marquez" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sergio Ortiz" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agustin Quiroga" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David Sayago" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patricio Ostachuk" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baltasar Barcia" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Braian Martinez" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kevin Lopez" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jhonny Quinonez" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ignacio Maestro Puch" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Juan Fedorco" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicolas Vallejo" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Javier Ruiz" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Lopez" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santiago Salle" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Joel Gonzalez" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manuel Tasso" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lucas Roman" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Axel Poza" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enzo Franco" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumen" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,36 +522,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Axel Poza</t>
+          <t>Tomás Rambert</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Gimnasia y Esgrima (Mendoza)</t>
+          <t>CA Los Andes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Alvarado</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -560,37 +560,37 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1198</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Axel Poza</t>
+          <t>Tomás Rambert</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Gimnasia y Esgrima (Mendoza)</t>
+          <t>CA Los Andes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Atlanta</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -604,33 +604,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Axel Poza</t>
+          <t>Tomás Rambert</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Gimnasia y Esgrima (Mendoza)</t>
+          <t>CA Los Andes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Gimnasia y Esgrima (Mendoza)</t>
+          <t>CA Los Andes</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -648,7 +648,51 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tomás Rambert</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA Los Andes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Extremo izquierdo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -662,7 +706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,133 +779,221 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Rentistas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1460</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2305</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Club Deportivo Maipú</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2086</v>
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baltasar Barcia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA Boston River</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Criciúma Esporte Clube</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baltasar Barcia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CA Boston River</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -948,80 +1080,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Rentistas</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1853</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Aldosivi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1030,111 +1162,111 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1835</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CD Everton</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>1730</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Criciúma Esporte Clube</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>453</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1144,7 +1276,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -1162,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>141</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -1249,36 +1381,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CSD Defensa y Justicia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1287,42 +1419,42 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3201</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Aldosivi</t>
+          <t>Quilmes AC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1331,86 +1463,86 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1863</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CD Everton</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1217</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1419,23 +1551,23 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>237</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1445,10 +1577,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1463,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>477</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1550,105 +1682,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSD Defensa y Justicia</t>
+          <t>SD Aucas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>1993</v>
+        <v>12591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Quilmes AC</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2850</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1658,13 +1790,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -1676,33 +1808,33 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1026</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Willem II Tilburg</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1711,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1720,37 +1852,37 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>601</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>Willem II Tilburg U21</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
@@ -1764,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>59</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -1773,6 +1905,608 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>45</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ignacio Maestro Puch</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA San Martín (San Juan)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán II</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente (Chivilcoy)</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Club Sol de Mayo</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Juan Fedorco</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Club Puebla</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CA Douglas Haig</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1851,124 +2585,124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SD Aucas</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12591</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1625</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Talleres</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1977,36 +2711,36 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>514</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Willem II Tilburg</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2021,29 +2755,29 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>192</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Willem II Tilburg U21</t>
+          <t>CA Talleres II</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2065,609 +2799,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>540</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>45</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>37</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ignacio Maestro Puch</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA San Martín (San Juan)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán II</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente (Chivilcoy)</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>30</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>26</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>22</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Club Sol de Mayo</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Juan Fedorco</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Club Puebla</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CA Douglas Haig</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>810</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2754,80 +2886,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1727</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -2836,139 +2968,51 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2083</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Talleres</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nicolás Vallejo</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liverpool FC Montevideo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Nicolás Vallejo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liverpool FC Montevideo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CA Talleres II</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>368</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3055,74 +3099,74 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>2306</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3137,33 +3181,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1207</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3172,16 +3216,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>403</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3268,17 +3312,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -3288,54 +3332,54 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1202</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3350,42 +3394,42 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>754</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -3394,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>326</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -3403,6 +3447,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>David Martínez</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>46</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>David Martínez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>David Martínez</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pivote</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Volos NPS</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3481,36 +3738,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tomás Rambert</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Los Andes</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Alvarado</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3519,43 +3776,43 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1268</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tomás Rambert</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Los Andes</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -3563,33 +3820,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>547</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tomás Rambert</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Los Andes</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Los Andes</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3607,23 +3864,23 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>425</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tomás Rambert</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Los Andes</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -3633,7 +3890,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3642,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -3651,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3659,7 +3916,579 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Goles en Contra</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Imbatido</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Manuel Tasso</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AD Union Magdalena</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FC Barcelona Atlètic</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Club Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lucas Román</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Extremo derecho</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FC Barcelona UEFA (Sub-19)</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3738,33 +4567,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Axel Poza</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Gimnasia y Esgrima (Mendoza)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3776,33 +4605,33 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1127</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Axel Poza</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Gimnasia y Esgrima (Mendoza)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Atlanta</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3811,48 +4640,48 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Axel Poza</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Gimnasia y Esgrima (Mendoza)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CA Gimnasia y Esgrima (Mendoza)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3864,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>538</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3872,264 +4701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Joel González</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CS Dock Sud</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS Dock Sud</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>30</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Joel González</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CS Dock Sud</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Joel González</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CS Dock Sud</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Joel González</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS Dock Sud</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4335,578 +4907,6 @@
       </c>
       <c r="L4" t="n">
         <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Goles en Contra</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Imbatido</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>37</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>45</v>
-      </c>
-      <c r="L2" t="n">
-        <v>13</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3297</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Manuel Tasso</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portero</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>AD Union Magdalena</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FC Barcelona Atlètic</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>28</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Club Ferro Carril Oeste</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>27</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FC Cartagena</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lucas Román</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Extremo derecho</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FC Barcelona UEFA (Sub-19)</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4978,24 +4978,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Axel Poza</t>
+          <t>Tomás Rambert</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CA Gimnasia y Esgrima (Mendoza)</t>
+          <t>CA Los Andes</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5013,24 +5013,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tomás Rambert</t>
+          <t>David Martínez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CA Los Andes</t>
+          <t>Volos NPS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>425</v>
+        <v>234</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5048,59 +5048,59 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>David Martínez</t>
+          <t>Diego Segovia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>Club Deportivo Maldonado</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>630</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>234</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diego Segovia</t>
+          <t>Mauro Zurita</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>630</v>
+        <v>1660</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5109,33 +5109,33 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Rodrigo Márquez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1570</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5153,24 +5153,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>530</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5188,24 +5188,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergio Ortíz</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>440</v>
+        <v>1898</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5223,27 +5223,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Agustín Quiroga</t>
+          <t>David Sayago</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CA Chacarita Juniors</t>
+          <t>Arsenal FC</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>1898</v>
+        <v>189</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5258,24 +5258,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>David Sayago</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Arsenal FC</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>189</v>
+        <v>2305</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5293,27 +5293,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Patricio Ostachuk</t>
+          <t>Baltasar Barcia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CSD Tristán Suárez</t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>2305</v>
+        <v>1835</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5328,30 +5328,30 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Baltasar Barcia</t>
+          <t>Braian Martínez</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CA Boston River</t>
+          <t>CA Tigre</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>1835</v>
+        <v>237</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -5363,30 +5363,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Braian Martínez</t>
+          <t>Kevin López</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CA Tigre</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>237</v>
+        <v>620</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -5398,30 +5398,30 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kevin López</t>
+          <t>Jhonny Quiñónez</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mediocentro</t>
+          <t>Pivote</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Barcelona SC Guayaquil</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>601</v>
+        <v>1625</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -5433,30 +5433,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jhonny Quiñónez</t>
+          <t>Ignacio Maestro Puch</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Delantero centro</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Barcelona SC Guayaquil</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>1625</v>
+        <v>484</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -5468,27 +5468,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ignacio Maestro Puch</t>
+          <t>Juan Fedorco</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Delantero centro</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>Club Puebla</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
-        <v>484</v>
+        <v>1752</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5503,30 +5503,30 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Juan Fedorco</t>
+          <t>Nicolás Vallejo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Defensa central</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Club Puebla</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
-        <v>1752</v>
+        <v>2083</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -5538,27 +5538,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nicolás Vallejo</t>
+          <t>Javier Ruiz</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Mediocentro ofensivo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>CA Barracas Central</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" t="n">
-        <v>2083</v>
+        <v>2306</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -5573,30 +5573,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Javier Ruiz</t>
+          <t>Santiago López</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mediocentro ofensivo</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CA Barracas Central</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>2306</v>
+        <v>754</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -5608,30 +5608,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Santiago López</t>
+          <t>Santiago Salle</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Lateral derecho</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CA Rosario Central</t>
+          <t>CA San Martín (San Juan)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>754</v>
+        <v>538</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -5643,30 +5643,30 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Santiago Salle</t>
+          <t>Joel González</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lateral derecho</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CA San Martín (San Juan)</t>
+          <t>CS Dock Sud</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
-        <v>538</v>
+        <v>1443</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -5678,27 +5678,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Joel González</t>
+          <t>Manuel Tasso</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Portero</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS Dock Sud</t>
+          <t>AD Union Magdalena</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1443</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -5713,27 +5713,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Enzo Franco</t>
+          <t>Lucas Román</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lateral izquierdo</t>
+          <t>Extremo derecho</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Real Pilar FC</t>
+          <t>Club Atlético Tucumán</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1910</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -5748,17 +5748,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Manuel Tasso</t>
+          <t>Axel Poza</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AD Union Magdalena</t>
+          <t>CA Gimnasia y Esgrima (Mendoza)</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -5783,27 +5783,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lucas Román</t>
+          <t>Enzo Franco</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extremo derecho</t>
+          <t>Lateral izquierdo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Club Atlético Tucumán</t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>1910</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -5821,6 +5821,490 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Goles en Contra</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Imbatido</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Diego Segovia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Club Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Independiente II</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Diego Segovia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Club Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Club Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Diego Segovia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Club Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portero</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mauro Zurita</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Círculo Deportivo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CA Güemes</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mauro Zurita</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Círculo Deportivo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Círculo Deportivo</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mauro Zurita</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Círculo Deportivo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mauro Zurita</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Círculo Deportivo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Defensa central</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5899,17 +6383,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>David Martínez</t>
+          <t>Rodrigo Márquez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -5919,16 +6403,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -5937,23 +6421,23 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2251</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>David Martínez</t>
+          <t>Rodrigo Márquez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -5963,16 +6447,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -5981,33 +6465,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1001</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>David Martínez</t>
+          <t>Rodrigo Márquez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pivote</t>
+          <t>Extremo izquierdo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Volos NPS</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6016,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -6025,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>234</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6033,13 +6517,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6085,30 +6569,25 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Amarillas</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>2ª Amarilla</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Rojas</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Goles en Contra</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Imbatido</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Minutos</t>
         </is>
@@ -6117,142 +6596,221 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Diego Segovia</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1503</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Diego Segovia</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>630</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Diego Segovia</t>
+          <t>Sergio Ortíz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Club Deportivo Maldonado</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Portero</t>
+          <t>Mediocentro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CA Nueva Chicago</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sergio Ortíz</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sergio Ortíz</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CA Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mediocentro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Club Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6260,7 +6818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6339,12 +6897,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6355,20 +6913,20 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Güemes</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -6377,18 +6935,18 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1858</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6399,11 +6957,11 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Independiente II</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6412,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -6421,18 +6979,18 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1570</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6443,17 +7001,17 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Nueva Chicago</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -6465,18 +7023,18 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>836</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mauro Zurita</t>
+          <t>Agustín Quiroga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6491,7 +7049,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6509,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6517,7 +7075,396 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Completo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Club Actual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Club_nombre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Partidos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amarillas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2ª Amarilla</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Raya2 Expansión (- 2023)</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CA Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CF Atlante</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS Herediano</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CSD Tristán Suárez</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>David Sayago</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arsenal FC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Delantero centro</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6596,17 +7543,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -6616,51 +7563,51 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1220</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Independiente II</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -6669,42 +7616,42 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>532</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rodrigo Márquez</t>
+          <t>Patricio Ostachuk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>CSD Tristán Suárez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extremo izquierdo</t>
+          <t>Defensa central</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Club Deportivo Maipú</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6713,963 +7660,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>30</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Club Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sergio Ortíz</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CA Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mediocentro</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Club Deportivo Riestra</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>24</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Independiente II</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>18</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Platense</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Agustín Quiroga</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CA Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Defensa central</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Completo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Club Actual</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Club_nombre</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Partidos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Goles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Asistencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amarillas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2ª Amarilla</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rojas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Raya2 Expansión (- 2023)</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>29</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CA Defensores de Belgrano</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>19</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CF Atlante</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS Herediano</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CSD Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>David Sayago</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Arsenal FC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Delantero centro</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
+        <v>2086</v>
       </c>
     </row>
   </sheetData>
